--- a/sources/fact_extraction_viewpoint/environment-table16.xlsx
+++ b/sources/fact_extraction_viewpoint/environment-table16.xlsx
@@ -457,7 +457,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,10 +736,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +745,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1021,7 +1027,7 @@
   <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1586,7 +1592,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1619,7 +1625,7 @@
       <c r="J6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="68"/>
+      <c r="K6" s="71"/>
       <c r="L6" s="50"/>
       <c r="M6" s="50"/>
       <c r="N6" s="50"/>
@@ -3174,7 +3180,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="39">
@@ -3219,7 +3225,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="40">
@@ -3264,7 +3270,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="68" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="41">
@@ -3308,7 +3314,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="68" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="42">
@@ -3353,7 +3359,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="20.149999999999999" customHeight="1">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="69" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="44">
